--- a/stock-today.xlsx
+++ b/stock-today.xlsx
@@ -14,66 +14,384 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="126">
+  <si>
+    <t>No</t>
+  </si>
   <si>
     <t>companyName</t>
   </si>
   <si>
-    <t>currentValue</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>% Change</t>
+    <t>currVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dayHigh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    dayLow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    % Change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      change</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>ZEE ENTERTAINMENT ENTERPRISES LTD.</t>
+  </si>
+  <si>
+    <t>234.25</t>
+  </si>
+  <si>
+    <t>12:34</t>
+  </si>
+  <si>
+    <t>MARUTI SUZUKI INDIA LTD.</t>
+  </si>
+  <si>
+    <t>7932.85</t>
+  </si>
+  <si>
+    <t>WIPRO LTD.</t>
+  </si>
+  <si>
+    <t>425.65</t>
+  </si>
+  <si>
+    <t>UPL Limited</t>
+  </si>
+  <si>
+    <t>502.00</t>
+  </si>
+  <si>
+    <t>12:35</t>
+  </si>
+  <si>
+    <t>Larsen &amp; Toubro Infotech Ltd</t>
+  </si>
+  <si>
+    <t>4034.65</t>
+  </si>
+  <si>
+    <t>EICHER MOTORS LTD.</t>
+  </si>
+  <si>
+    <t>2749.05</t>
+  </si>
+  <si>
+    <t>TECH MAHINDRA LTD.</t>
+  </si>
+  <si>
+    <t>1032.05</t>
+  </si>
+  <si>
+    <t>Dixon Technologies (India) Ltd</t>
+  </si>
+  <si>
+    <t>16254.00</t>
+  </si>
+  <si>
+    <t>MAHINDRA &amp; MAHINDRA LTD.</t>
+  </si>
+  <si>
+    <t>765.95</t>
+  </si>
+  <si>
+    <t>BAJAJ FINSERV LTD.</t>
+  </si>
+  <si>
+    <t>9226.70</t>
+  </si>
+  <si>
+    <t>ULTRATECH CEMENT LTD.</t>
+  </si>
+  <si>
+    <t>5541.00</t>
+  </si>
+  <si>
+    <t>BHARAT PETROLEUM CORPORATION LTD.</t>
+  </si>
+  <si>
+    <t>402.20</t>
+  </si>
+  <si>
+    <t>INFOSYS LTD.</t>
+  </si>
+  <si>
+    <t>1293.35</t>
+  </si>
+  <si>
+    <t>GRASIM INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>1018.30</t>
+  </si>
+  <si>
+    <t>TATA CONSULTANCY SERVICES LTD.</t>
+  </si>
+  <si>
+    <t>3105.40</t>
+  </si>
+  <si>
+    <t>COLGATE-PALMOLIVE (INDIA) LTD.</t>
+  </si>
+  <si>
+    <t>1624.00</t>
+  </si>
+  <si>
+    <t>HCL TECHNOLOGIES LTD.</t>
+  </si>
+  <si>
+    <t>983.30</t>
+  </si>
+  <si>
+    <t>HDFC Life Insurance Company Ltd</t>
+  </si>
+  <si>
+    <t>718.00</t>
+  </si>
+  <si>
+    <t>INFO EDGE (INDIA) LTD.</t>
+  </si>
+  <si>
+    <t>5410.05</t>
+  </si>
+  <si>
+    <t>SHREE CEMENT LTD.</t>
+  </si>
+  <si>
+    <t>25468.10</t>
+  </si>
+  <si>
+    <t>HERO MOTOCORP LTD.</t>
+  </si>
+  <si>
+    <t>3108.90</t>
+  </si>
+  <si>
+    <t>BAJAJ AUTO LTD.</t>
+  </si>
+  <si>
+    <t>3493.30</t>
+  </si>
+  <si>
+    <t>TATA MOTORS LTD.</t>
+  </si>
+  <si>
+    <t>199.60</t>
+  </si>
+  <si>
+    <t>GLOBUS SPIRITS LTD.</t>
+  </si>
+  <si>
+    <t>388.00</t>
+  </si>
+  <si>
+    <t>DIVI'S LABORATORIES LTD.</t>
+  </si>
+  <si>
+    <t>3859.95</t>
+  </si>
+  <si>
+    <t>ADANI PORTS AND SPECIAL ECONOMIC ZONE LTD.</t>
+  </si>
+  <si>
+    <t>520.50</t>
+  </si>
+  <si>
+    <t>HDFC Asset Management Company Ltd</t>
+  </si>
+  <si>
+    <t>3101.10</t>
+  </si>
+  <si>
+    <t>TATA ELXSI LTD.</t>
+  </si>
+  <si>
+    <t>2024.25</t>
+  </si>
+  <si>
+    <t>LUPIN LTD.</t>
+  </si>
+  <si>
+    <t>1033.45</t>
+  </si>
+  <si>
+    <t>GANESH BENZOPLAST LTD.</t>
+  </si>
+  <si>
+    <t>60.25</t>
+  </si>
+  <si>
+    <t>DR.REDDY'S LABORATORIES LTD.</t>
+  </si>
+  <si>
+    <t>5327.70</t>
+  </si>
+  <si>
+    <t>Indus Towers Ltd</t>
+  </si>
+  <si>
+    <t>269.20</t>
+  </si>
+  <si>
     <t>CIPLA LTD.</t>
   </si>
   <si>
-    <t>789.25</t>
-  </si>
-  <si>
-    <t>04:00</t>
+    <t>834.95</t>
+  </si>
+  <si>
+    <t>INDUSIND BANK LTD.</t>
+  </si>
+  <si>
+    <t>961.80</t>
+  </si>
+  <si>
+    <t>Cholamandalam Investment and Finance Company Ltd</t>
+  </si>
+  <si>
+    <t>434.90</t>
+  </si>
+  <si>
+    <t>SAGAR CEMENTS LTD.-$</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>RELIANCE INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>1920.00</t>
+  </si>
+  <si>
+    <t>KOTAK MAHINDRA BANK LTD.</t>
+  </si>
+  <si>
+    <t>1961.15</t>
+  </si>
+  <si>
+    <t>JSW STEEL LTD.</t>
+  </si>
+  <si>
+    <t>406.30</t>
+  </si>
+  <si>
+    <t>MOTHERSON SUMI SYSTEMS LTD.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>ADANI ENTERPRISES LTD.</t>
+  </si>
+  <si>
+    <t>519.35</t>
+  </si>
+  <si>
+    <t>Vedanta Limited</t>
+  </si>
+  <si>
+    <t>185.85</t>
+  </si>
+  <si>
+    <t>ASIAN PAINTS LTD.</t>
+  </si>
+  <si>
+    <t>2794.05</t>
+  </si>
+  <si>
+    <t>NESTLE INDIA LTD.</t>
+  </si>
+  <si>
+    <t>18129.50</t>
+  </si>
+  <si>
+    <t>MUTHOOT FINANCE LTD.</t>
+  </si>
+  <si>
+    <t>1277.00</t>
   </si>
   <si>
     <t>Titan Company Limited</t>
   </si>
   <si>
-    <t>1463.40</t>
-  </si>
-  <si>
-    <t>HCL TECHNOLOGIES LTD.</t>
-  </si>
-  <si>
-    <t>873.50</t>
-  </si>
-  <si>
-    <t>KOTAK MAHINDRA BANK LTD.</t>
-  </si>
-  <si>
-    <t>1940.15</t>
-  </si>
-  <si>
-    <t>ADANI PORTS AND SPECIAL ECONOMIC ZONE LTD.</t>
-  </si>
-  <si>
-    <t>467.00</t>
-  </si>
-  <si>
-    <t>INFOSYS LTD.</t>
-  </si>
-  <si>
-    <t>1164.55</t>
-  </si>
-  <si>
-    <t>RELIANCE INDUSTRIES LTD.</t>
-  </si>
-  <si>
-    <t>1991.15</t>
+    <t>1541.00</t>
+  </si>
+  <si>
+    <t>SBI Cards and Payment Services Ltd</t>
+  </si>
+  <si>
+    <t>974.90</t>
+  </si>
+  <si>
+    <t>BHARTI AIRTEL LTD.</t>
+  </si>
+  <si>
+    <t>544.45</t>
+  </si>
+  <si>
+    <t>ICICI BANK LTD.</t>
+  </si>
+  <si>
+    <t>540.20</t>
+  </si>
+  <si>
+    <t>BRITANNIA INDUSTRIES LTD.</t>
+  </si>
+  <si>
+    <t>3547.10</t>
+  </si>
+  <si>
+    <t>TAAL Enterprises Ltd</t>
+  </si>
+  <si>
+    <t>292.10</t>
+  </si>
+  <si>
+    <t>AUROBINDO PHARMA LTD.</t>
+  </si>
+  <si>
+    <t>951.65</t>
+  </si>
+  <si>
+    <t>MCLEOD RUSSEL INDIA LTD.</t>
+  </si>
+  <si>
+    <t>23.40</t>
+  </si>
+  <si>
+    <t>TATA STEEL LTD.</t>
+  </si>
+  <si>
+    <t>717.50</t>
+  </si>
+  <si>
+    <t>VIVO BIO TECH LTD.</t>
+  </si>
+  <si>
+    <t>63.05</t>
+  </si>
+  <si>
+    <t>AGC Networks Limited</t>
+  </si>
+  <si>
+    <t>742.00</t>
+  </si>
+  <si>
+    <t>Gland Pharma Ltd</t>
+  </si>
+  <si>
+    <t>2365.00</t>
+  </si>
+  <si>
+    <t>Adani Green Energy Ltd</t>
+  </si>
+  <si>
+    <t>1020.45</t>
   </si>
 </sst>
 </file>
@@ -416,16 +734,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,145 +761,1526 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>235.85</v>
+      </c>
+      <c r="E2">
+        <v>221.15</v>
+      </c>
+      <c r="F2">
+        <v>6.96</v>
+      </c>
+      <c r="G2">
+        <v>15.25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>7970.15</v>
+      </c>
+      <c r="E3">
+        <v>7600</v>
+      </c>
+      <c r="F3">
+        <v>4.84</v>
+      </c>
+      <c r="G3">
+        <v>366.1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>425.65</v>
+      </c>
+      <c r="E4">
+        <v>407.55</v>
+      </c>
+      <c r="F4">
+        <v>4.65</v>
+      </c>
+      <c r="G4">
+        <v>18.9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>506</v>
+      </c>
+      <c r="E5">
+        <v>485</v>
+      </c>
+      <c r="F5">
+        <v>4.12</v>
+      </c>
+      <c r="G5">
+        <v>19.85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>4047.95</v>
+      </c>
+      <c r="E6">
+        <v>3924.4</v>
+      </c>
+      <c r="F6">
+        <v>3.85</v>
+      </c>
+      <c r="G6">
+        <v>149.55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>33.35</v>
-      </c>
-      <c r="D2">
-        <v>4.41</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>2755.95</v>
+      </c>
+      <c r="E7">
+        <v>2655</v>
+      </c>
+      <c r="F7">
+        <v>3.8</v>
+      </c>
+      <c r="G7">
+        <v>100.7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1033</v>
+      </c>
+      <c r="E8">
+        <v>998</v>
+      </c>
+      <c r="F8">
+        <v>3.74</v>
+      </c>
+      <c r="G8">
+        <v>37.25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>16787.65</v>
+      </c>
+      <c r="E9">
+        <v>15850</v>
+      </c>
+      <c r="F9">
+        <v>3.32</v>
+      </c>
+      <c r="G9">
+        <v>521.9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>20.75</v>
-      </c>
-      <c r="D3">
-        <v>1.44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>769.6</v>
+      </c>
+      <c r="E10">
+        <v>744.95</v>
+      </c>
+      <c r="F10">
+        <v>2.89</v>
+      </c>
+      <c r="G10">
+        <v>21.55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>9263</v>
+      </c>
+      <c r="E11">
+        <v>8950</v>
+      </c>
+      <c r="F11">
+        <v>2.66</v>
+      </c>
+      <c r="G11">
+        <v>239.15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>5557.9</v>
+      </c>
+      <c r="E12">
+        <v>5428.25</v>
+      </c>
+      <c r="F12">
+        <v>2.63</v>
+      </c>
+      <c r="G12">
+        <v>142.2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1.39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
+        <v>405.9</v>
+      </c>
+      <c r="E13">
+        <v>392.25</v>
+      </c>
+      <c r="F13">
+        <v>2.54</v>
+      </c>
+      <c r="G13">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="C5">
-        <v>19.5</v>
-      </c>
-      <c r="D5">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>1293.85</v>
+      </c>
+      <c r="E14">
+        <v>1278.65</v>
+      </c>
+      <c r="F14">
+        <v>2.49</v>
+      </c>
+      <c r="G14">
+        <v>31.4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>1018.6</v>
+      </c>
+      <c r="E15">
+        <v>994.3</v>
+      </c>
+      <c r="F15">
+        <v>2.41</v>
+      </c>
+      <c r="G15">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>3110</v>
+      </c>
+      <c r="E16">
+        <v>3061.8</v>
+      </c>
+      <c r="F16">
+        <v>2.4</v>
+      </c>
+      <c r="G16">
+        <v>72.7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>1624.9</v>
+      </c>
+      <c r="E17">
+        <v>1599.35</v>
+      </c>
+      <c r="F17">
+        <v>2.01</v>
+      </c>
+      <c r="G17">
+        <v>32.05</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>987.6</v>
+      </c>
+      <c r="E18">
+        <v>970</v>
+      </c>
+      <c r="F18">
+        <v>1.98</v>
+      </c>
+      <c r="G18">
+        <v>19.05</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>722</v>
+      </c>
+      <c r="E19">
+        <v>708.05</v>
+      </c>
+      <c r="F19">
+        <v>1.94</v>
+      </c>
+      <c r="G19">
+        <v>13.65</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>5426.85</v>
+      </c>
+      <c r="E20">
+        <v>5288.1</v>
+      </c>
+      <c r="F20">
+        <v>1.86</v>
+      </c>
+      <c r="G20">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>25531</v>
+      </c>
+      <c r="E21">
+        <v>25070.05</v>
+      </c>
+      <c r="F21">
+        <v>1.83</v>
+      </c>
+      <c r="G21">
+        <v>458.05</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>3114.7</v>
+      </c>
+      <c r="E22">
+        <v>3058.5</v>
+      </c>
+      <c r="F22">
+        <v>1.66</v>
+      </c>
+      <c r="G22">
+        <v>50.65</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23">
+        <v>3499</v>
+      </c>
+      <c r="E23">
+        <v>3439.15</v>
+      </c>
+      <c r="F23">
+        <v>1.62</v>
+      </c>
+      <c r="G23">
+        <v>55.55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>201.45</v>
+      </c>
+      <c r="E24">
+        <v>198</v>
+      </c>
+      <c r="F24">
+        <v>1.47</v>
+      </c>
+      <c r="G24">
+        <v>2.9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <v>411.3</v>
+      </c>
+      <c r="E25">
+        <v>382.45</v>
+      </c>
+      <c r="F25">
+        <v>1.41</v>
+      </c>
+      <c r="G25">
+        <v>5.4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26">
+        <v>3863.8</v>
+      </c>
+      <c r="E26">
+        <v>3811.4</v>
+      </c>
+      <c r="F26">
+        <v>1.37</v>
+      </c>
+      <c r="G26">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27">
+        <v>527.05</v>
+      </c>
+      <c r="E27">
+        <v>517.45</v>
+      </c>
+      <c r="F27">
+        <v>1.33</v>
+      </c>
+      <c r="G27">
+        <v>6.85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>3134.95</v>
+      </c>
+      <c r="E28">
+        <v>3054.2</v>
+      </c>
+      <c r="F28">
+        <v>1.26</v>
+      </c>
+      <c r="G28">
+        <v>38.45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29">
+        <v>2052</v>
+      </c>
+      <c r="E29">
+        <v>2005</v>
+      </c>
+      <c r="F29">
+        <v>1.22</v>
+      </c>
+      <c r="G29">
+        <v>24.35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30">
+        <v>1047</v>
+      </c>
+      <c r="E30">
+        <v>1023</v>
+      </c>
+      <c r="F30">
+        <v>1.12</v>
+      </c>
+      <c r="G30">
+        <v>11.4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31">
+        <v>62</v>
+      </c>
+      <c r="E31">
+        <v>59.4</v>
+      </c>
+      <c r="F31">
+        <v>1.09</v>
+      </c>
+      <c r="G31">
+        <v>0.65</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>5360</v>
+      </c>
+      <c r="E32">
+        <v>5279.3</v>
+      </c>
+      <c r="F32">
+        <v>1.09</v>
+      </c>
+      <c r="G32">
+        <v>57.5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>272.9</v>
+      </c>
+      <c r="E33">
+        <v>268.5</v>
+      </c>
+      <c r="F33">
+        <v>1.05</v>
+      </c>
+      <c r="G33">
+        <v>2.8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34">
+        <v>846</v>
+      </c>
+      <c r="E34">
+        <v>826</v>
+      </c>
+      <c r="F34">
+        <v>1.04</v>
+      </c>
+      <c r="G34">
+        <v>8.6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>975.95</v>
+      </c>
+      <c r="E35">
+        <v>956.25</v>
+      </c>
+      <c r="F35">
         <v>1.02</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0.75</v>
-      </c>
-      <c r="D6">
-        <v>0.16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7">
-        <v>0.13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>-14.45</v>
-      </c>
-      <c r="D8">
-        <v>-0.72</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>-14.45</v>
-      </c>
-      <c r="D9">
-        <v>-0.72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
+      <c r="G35">
+        <v>9.75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36">
+        <v>437.2</v>
+      </c>
+      <c r="E36">
+        <v>427.55</v>
+      </c>
+      <c r="F36">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G36">
+        <v>3.5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37">
+        <v>687.1</v>
+      </c>
+      <c r="E37">
+        <v>679.7</v>
+      </c>
+      <c r="F37">
+        <v>0.51</v>
+      </c>
+      <c r="G37">
+        <v>3.45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38">
+        <v>1925</v>
+      </c>
+      <c r="E38">
+        <v>1912.7</v>
+      </c>
+      <c r="F38">
+        <v>0.47</v>
+      </c>
+      <c r="G38">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39">
+        <v>1970.45</v>
+      </c>
+      <c r="E39">
+        <v>1946.05</v>
+      </c>
+      <c r="F39">
+        <v>0.42</v>
+      </c>
+      <c r="G39">
+        <v>8.15</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40">
+        <v>410.65</v>
+      </c>
+      <c r="E40">
+        <v>403.5</v>
+      </c>
+      <c r="F40">
+        <v>0.33</v>
+      </c>
+      <c r="G40">
+        <v>1.35</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41">
+        <v>169.6</v>
+      </c>
+      <c r="E41">
+        <v>166.6</v>
+      </c>
+      <c r="F41">
+        <v>0.27</v>
+      </c>
+      <c r="G41">
+        <v>0.45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42">
+        <v>526.8</v>
+      </c>
+      <c r="E42">
+        <v>516.85</v>
+      </c>
+      <c r="F42">
+        <v>0.26</v>
+      </c>
+      <c r="G42">
+        <v>1.35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43">
+        <v>189.7</v>
+      </c>
+      <c r="E43">
+        <v>185.05</v>
+      </c>
+      <c r="F43">
+        <v>0.19</v>
+      </c>
+      <c r="G43">
+        <v>0.35</v>
+      </c>
+      <c r="H43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>2823.95</v>
+      </c>
+      <c r="E44">
+        <v>2790</v>
+      </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+      <c r="G44">
+        <v>2.7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45">
+        <v>18247.95</v>
+      </c>
+      <c r="E45">
+        <v>18002</v>
+      </c>
+      <c r="F45">
+        <v>-0.06</v>
+      </c>
+      <c r="G45">
+        <v>-10.25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46">
+        <v>1281.7</v>
+      </c>
+      <c r="E46">
+        <v>1267.5</v>
+      </c>
+      <c r="F46">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G46">
+        <v>-0.85</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47">
+        <v>1549</v>
+      </c>
+      <c r="E47">
+        <v>1522.1</v>
+      </c>
+      <c r="F47">
+        <v>-0.09</v>
+      </c>
+      <c r="G47">
+        <v>-1.4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48">
+        <v>989.05</v>
+      </c>
+      <c r="E48">
+        <v>965.5</v>
+      </c>
+      <c r="F48">
+        <v>-0.12</v>
+      </c>
+      <c r="G48">
+        <v>-1.2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>550</v>
+      </c>
+      <c r="E49">
+        <v>540.35</v>
+      </c>
+      <c r="F49">
+        <v>-0.16</v>
+      </c>
+      <c r="G49">
+        <v>-0.85</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50">
+        <v>546.65</v>
+      </c>
+      <c r="E50">
+        <v>538.15</v>
+      </c>
+      <c r="F50">
+        <v>-0.17</v>
+      </c>
+      <c r="G50">
+        <v>-0.9</v>
+      </c>
+      <c r="H50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51">
+        <v>3588</v>
+      </c>
+      <c r="E51">
+        <v>3533.45</v>
+      </c>
+      <c r="F51">
+        <v>-0.21</v>
+      </c>
+      <c r="G51">
+        <v>-7.35</v>
+      </c>
+      <c r="H51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52">
+        <v>300</v>
+      </c>
+      <c r="E52">
+        <v>281</v>
+      </c>
+      <c r="F52">
+        <v>-0.43</v>
+      </c>
+      <c r="G52">
+        <v>-1.25</v>
+      </c>
+      <c r="H52" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>966.5</v>
+      </c>
+      <c r="E53">
+        <v>949.05</v>
+      </c>
+      <c r="F53">
+        <v>-0.59</v>
+      </c>
+      <c r="G53">
+        <v>-5.65</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54">
+        <v>24.15</v>
+      </c>
+      <c r="E54">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>-0.64</v>
+      </c>
+      <c r="G54">
+        <v>-0.15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55">
+        <v>727.4</v>
+      </c>
+      <c r="E55">
+        <v>715.55</v>
+      </c>
+      <c r="F55">
+        <v>-0.73</v>
+      </c>
+      <c r="G55">
+        <v>-5.25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>65</v>
+      </c>
+      <c r="E56">
+        <v>62</v>
+      </c>
+      <c r="F56">
+        <v>-0.79</v>
+      </c>
+      <c r="G56">
+        <v>-0.5</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57">
+        <v>769.95</v>
+      </c>
+      <c r="E57">
+        <v>716.3</v>
+      </c>
+      <c r="F57">
+        <v>-1.49</v>
+      </c>
+      <c r="G57">
+        <v>-11.2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58">
+        <v>2428</v>
+      </c>
+      <c r="E58">
+        <v>2356.15</v>
+      </c>
+      <c r="F58">
+        <v>-1.52</v>
+      </c>
+      <c r="G58">
+        <v>-36.5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59">
+        <v>1075.6</v>
+      </c>
+      <c r="E59">
+        <v>1010.35</v>
+      </c>
+      <c r="F59">
+        <v>-4.05</v>
+      </c>
+      <c r="G59">
+        <v>-43.05</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D9">
+  <conditionalFormatting sqref="F2:G59">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
